--- a/UserApi/Templates/templateExportXoz.xlsx
+++ b/UserApi/Templates/templateExportXoz.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Items">Лист1!$A$4:$AC$5</definedName>
+    <definedName name="Items">Лист1!$A$4:$AE$5</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Т/р</t>
   </si>
@@ -77,28 +77,7 @@
 (Истисно билан)</t>
   </si>
   <si>
-    <t>Давлат хизматлари (19-param)</t>
-  </si>
-  <si>
-    <t>Ишлаб чиқариш ва техник жараёнларни (24-param)</t>
-  </si>
-  <si>
-    <t>Моддий-техника ресурсларининг ҳисоб-китобини автоматлаштириш (31-param)</t>
-  </si>
-  <si>
     <t>5.2</t>
-  </si>
-  <si>
-    <t>Ахборот тизими (жами 40 балл)</t>
-  </si>
-  <si>
-    <t>Рақамли иқтисодиёт ва электрон ҳукуматни ривожлантириш лойиҳалари жорий қилинмоқда (6.1)</t>
-  </si>
-  <si>
-    <t>Рақамли ривожланиш стратегиясининг мавжудлиги (6.2)</t>
-  </si>
-  <si>
-    <t>'6</t>
   </si>
   <si>
     <t>Арифметик</t>
@@ -183,9 +162,6 @@
     <t>{{item.fieldRate513}}</t>
   </si>
   <si>
-    <t>{{item.fieldRate52}}</t>
-  </si>
-  <si>
     <t>{{item.sphere4All}}</t>
   </si>
   <si>
@@ -202,6 +178,44 @@
   </si>
   <si>
     <t>{{item.percentage}}</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>{{item.fieldRate34}}</t>
+  </si>
+  <si>
+    <t>5 Бўлим бўйича жами
+(Истисно билан)</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>{{item.fieldRate514}}</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6 Бўлим бўйича жами
+(Истисно билан)</t>
+  </si>
+  <si>
+    <t>{{item.fieldRate63}}</t>
   </si>
 </sst>
 </file>
@@ -390,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -415,6 +429,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,21 +464,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,69 +769,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="61.42578125" customWidth="1"/>
-    <col min="3" max="29" width="10.7109375" customWidth="1"/>
+    <col min="3" max="31" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="21">
         <v>2</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="9">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="15">
         <v>3</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="9">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="15">
         <v>4</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="9">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="15">
         <v>5</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="9">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="15">
         <v>6</v>
       </c>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="2"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:31" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>2</v>
@@ -840,7 +859,7 @@
       <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -849,234 +868,252 @@
       <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="W2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="AE2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="C3" s="10">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11">
+        <v>16</v>
+      </c>
+      <c r="L3" s="11">
+        <v>6</v>
+      </c>
+      <c r="M3" s="10">
+        <v>2</v>
+      </c>
+      <c r="N3" s="10">
+        <v>2</v>
+      </c>
+      <c r="O3" s="10">
+        <v>6</v>
+      </c>
+      <c r="P3" s="10">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>4</v>
+      </c>
+      <c r="R3" s="10">
+        <v>8</v>
+      </c>
+      <c r="S3" s="10">
+        <v>8</v>
+      </c>
+      <c r="T3" s="10">
+        <v>20</v>
+      </c>
+      <c r="U3" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="V3" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="W3" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="X3" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>100</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="D4" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="3" t="s">
+      <c r="E4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <v>6</v>
-      </c>
-      <c r="E3" s="16">
-        <v>2</v>
-      </c>
-      <c r="F3" s="16">
-        <v>2</v>
-      </c>
-      <c r="G3" s="16">
-        <v>2</v>
-      </c>
-      <c r="H3" s="16">
-        <v>2</v>
-      </c>
-      <c r="I3" s="16">
-        <v>2</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17">
-        <v>16</v>
-      </c>
-      <c r="L3" s="16">
-        <v>8</v>
-      </c>
-      <c r="M3" s="16">
-        <v>1</v>
-      </c>
-      <c r="N3" s="16">
-        <v>0</v>
-      </c>
-      <c r="O3" s="16">
-        <v>9</v>
-      </c>
-      <c r="P3" s="16">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>8</v>
-      </c>
-      <c r="R3" s="16">
-        <v>8</v>
-      </c>
-      <c r="S3" s="16">
-        <v>20</v>
-      </c>
-      <c r="T3" s="16">
-        <v>2</v>
-      </c>
-      <c r="U3" s="16">
-        <v>22</v>
-      </c>
-      <c r="V3" s="16">
-        <v>10</v>
-      </c>
-      <c r="W3" s="16">
-        <v>6</v>
-      </c>
-      <c r="X3" s="16">
+      <c r="F4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="16">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="16">
-        <v>10</v>
-      </c>
-      <c r="AA3" s="16">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>100</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="19" t="s">
+      <c r="S4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="T4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="U4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="V4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="W4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="X4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Z4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="AA4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="AB4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="AD4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="AE4" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="V4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC4" s="20" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
